--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Igf2-Igf2r.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Igf2-Igf2r.xlsx
@@ -88,16 +88,16 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
+    <t>Igf2</t>
+  </si>
+  <si>
+    <t>Igf2r</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Igf2</t>
-  </si>
-  <si>
-    <t>Igf2r</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
   </si>
 </sst>
 </file>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.659724333333333</v>
+        <v>7.314932333333334</v>
       </c>
       <c r="H2">
-        <v>16.979173</v>
+        <v>21.944797</v>
       </c>
       <c r="I2">
-        <v>0.03283999818647846</v>
+        <v>0.5012540489572929</v>
       </c>
       <c r="J2">
-        <v>0.03283999818647846</v>
+        <v>0.5012540489572929</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>16.36026066666667</v>
+        <v>17.81454566666666</v>
       </c>
       <c r="N2">
-        <v>49.080782</v>
+        <v>53.443637</v>
       </c>
       <c r="O2">
-        <v>0.1040179164488296</v>
+        <v>0.1073892180782075</v>
       </c>
       <c r="P2">
-        <v>0.1040179164488297</v>
+        <v>0.1073892180782075</v>
       </c>
       <c r="Q2">
-        <v>92.59456539480955</v>
+        <v>130.3121961007432</v>
       </c>
       <c r="R2">
-        <v>833.351088553286</v>
+        <v>1172.809764906689</v>
       </c>
       <c r="S2">
-        <v>0.003415948187540833</v>
+        <v>0.05382928037605922</v>
       </c>
       <c r="T2">
-        <v>0.003415948187540834</v>
+        <v>0.05382928037605922</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.659724333333333</v>
+        <v>7.314932333333334</v>
       </c>
       <c r="H3">
-        <v>16.979173</v>
+        <v>21.944797</v>
       </c>
       <c r="I3">
-        <v>0.03283999818647846</v>
+        <v>0.5012540489572929</v>
       </c>
       <c r="J3">
-        <v>0.03283999818647846</v>
+        <v>0.5012540489572929</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>83.740296</v>
       </c>
       <c r="O3">
-        <v>0.1774725413447622</v>
+        <v>0.1682670831155755</v>
       </c>
       <c r="P3">
-        <v>0.1774725413447623</v>
+        <v>0.1682670831155755</v>
       </c>
       <c r="Q3">
-        <v>157.9823303172453</v>
+        <v>204.1848662711014</v>
       </c>
       <c r="R3">
-        <v>1421.840972855208</v>
+        <v>1837.663796439912</v>
       </c>
       <c r="S3">
-        <v>0.005828197935911716</v>
+        <v>0.08434455671791556</v>
       </c>
       <c r="T3">
-        <v>0.005828197935911717</v>
+        <v>0.08434455671791556</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.659724333333333</v>
+        <v>7.314932333333334</v>
       </c>
       <c r="H4">
-        <v>16.979173</v>
+        <v>21.944797</v>
       </c>
       <c r="I4">
-        <v>0.03283999818647846</v>
+        <v>0.5012540489572929</v>
       </c>
       <c r="J4">
-        <v>0.03283999818647846</v>
+        <v>0.5012540489572929</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>14.227296</v>
+        <v>17.455606</v>
       </c>
       <c r="N4">
-        <v>42.68188799999999</v>
+        <v>52.36681799999999</v>
       </c>
       <c r="O4">
-        <v>0.0904566080439041</v>
+        <v>0.1052254665651554</v>
       </c>
       <c r="P4">
-        <v>0.09045660804390411</v>
+        <v>0.1052254665651554</v>
       </c>
       <c r="Q4">
-        <v>80.52257336873598</v>
+        <v>127.6865767273273</v>
       </c>
       <c r="R4">
-        <v>724.7031603186239</v>
+        <v>1149.179190545946</v>
       </c>
       <c r="S4">
-        <v>0.002970594844116803</v>
+        <v>0.05274469116920439</v>
       </c>
       <c r="T4">
-        <v>0.002970594844116804</v>
+        <v>0.05274469116920438</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.659724333333333</v>
+        <v>7.314932333333334</v>
       </c>
       <c r="H5">
-        <v>16.979173</v>
+        <v>21.944797</v>
       </c>
       <c r="I5">
-        <v>0.03283999818647846</v>
+        <v>0.5012540489572929</v>
       </c>
       <c r="J5">
-        <v>0.03283999818647846</v>
+        <v>0.5012540489572929</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>43.47278266666666</v>
+        <v>8.484003666666666</v>
       </c>
       <c r="N5">
-        <v>130.418348</v>
+        <v>25.452011</v>
       </c>
       <c r="O5">
-        <v>0.2763983024080257</v>
+        <v>0.05114306797286151</v>
       </c>
       <c r="P5">
-        <v>0.2763983024080258</v>
+        <v>0.05114306797286151</v>
       </c>
       <c r="Q5">
-        <v>246.0439658962449</v>
+        <v>62.05991273741856</v>
       </c>
       <c r="R5">
-        <v>2214.395693066203</v>
+        <v>558.539214636767</v>
       </c>
       <c r="S5">
-        <v>0.00907691974982529</v>
+        <v>0.02563566989749488</v>
       </c>
       <c r="T5">
-        <v>0.009076919749825291</v>
+        <v>0.02563566989749488</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,7 +782,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.659724333333333</v>
+        <v>7.314932333333334</v>
       </c>
       <c r="H6">
-        <v>16.979173</v>
+        <v>21.944797</v>
       </c>
       <c r="I6">
-        <v>0.03283999818647846</v>
+        <v>0.5012540489572929</v>
       </c>
       <c r="J6">
-        <v>0.03283999818647846</v>
+        <v>0.5012540489572929</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>48.33663566666667</v>
+        <v>54.152232</v>
       </c>
       <c r="N6">
-        <v>145.009907</v>
+        <v>162.456696</v>
       </c>
       <c r="O6">
-        <v>0.3073224951994155</v>
+        <v>0.3264391896646005</v>
       </c>
       <c r="P6">
-        <v>0.3073224951994155</v>
+        <v>0.3264391896646005</v>
       </c>
       <c r="Q6">
-        <v>273.5720330741012</v>
+        <v>396.119912778968</v>
       </c>
       <c r="R6">
-        <v>2462.148297666911</v>
+        <v>3565.079215010712</v>
       </c>
       <c r="S6">
-        <v>0.01009247018501284</v>
+        <v>0.1636289655577187</v>
       </c>
       <c r="T6">
-        <v>0.01009247018501284</v>
+        <v>0.1636289655577187</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,7 +844,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>5.659724333333333</v>
+        <v>7.314932333333334</v>
       </c>
       <c r="H7">
-        <v>16.979173</v>
+        <v>21.944797</v>
       </c>
       <c r="I7">
-        <v>0.03283999818647846</v>
+        <v>0.5012540489572929</v>
       </c>
       <c r="J7">
-        <v>0.03283999818647846</v>
+        <v>0.5012540489572929</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.972696</v>
+        <v>40.06783666666666</v>
       </c>
       <c r="N7">
-        <v>20.918088</v>
+        <v>120.20351</v>
       </c>
       <c r="O7">
-        <v>0.04433213655506275</v>
+        <v>0.2415359746035996</v>
       </c>
       <c r="P7">
-        <v>0.04433213655506276</v>
+        <v>0.2415359746035996</v>
       </c>
       <c r="Q7">
-        <v>39.463537220136</v>
+        <v>293.0935139597189</v>
       </c>
       <c r="R7">
-        <v>355.171834981224</v>
+        <v>2637.84162563747</v>
       </c>
       <c r="S7">
-        <v>0.001455867284070976</v>
+        <v>0.1210708852389002</v>
       </c>
       <c r="T7">
-        <v>0.001455867284070977</v>
+        <v>0.1210708852389002</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>3.645556</v>
       </c>
       <c r="I8">
-        <v>0.007050994322792145</v>
+        <v>0.08327029435271388</v>
       </c>
       <c r="J8">
-        <v>0.007050994322792145</v>
+        <v>0.08327029435271389</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>16.36026066666667</v>
+        <v>17.81454566666666</v>
       </c>
       <c r="N8">
-        <v>49.080782</v>
+        <v>53.443637</v>
       </c>
       <c r="O8">
-        <v>0.1040179164488296</v>
+        <v>0.1073892180782075</v>
       </c>
       <c r="P8">
-        <v>0.1040179164488297</v>
+        <v>0.1073892180782075</v>
       </c>
       <c r="Q8">
-        <v>19.88074881164355</v>
+        <v>21.64797461413022</v>
       </c>
       <c r="R8">
-        <v>178.926739304792</v>
+        <v>194.831771527172</v>
       </c>
       <c r="S8">
-        <v>0.0007334297383493654</v>
+        <v>0.00894233179968012</v>
       </c>
       <c r="T8">
-        <v>0.0007334297383493655</v>
+        <v>0.008942331799680122</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>3.645556</v>
       </c>
       <c r="I9">
-        <v>0.007050994322792145</v>
+        <v>0.08327029435271388</v>
       </c>
       <c r="J9">
-        <v>0.007050994322792145</v>
+        <v>0.08327029435271389</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>83.740296</v>
       </c>
       <c r="O9">
-        <v>0.1774725413447622</v>
+        <v>0.1682670831155755</v>
       </c>
       <c r="P9">
-        <v>0.1774725413447623</v>
+        <v>0.1682670831155755</v>
       </c>
       <c r="Q9">
         <v>33.91999316939734</v>
@@ -1013,10 +1013,10 @@
         <v>305.279938524576</v>
       </c>
       <c r="S9">
-        <v>0.001251357881473413</v>
+        <v>0.01401164954090655</v>
       </c>
       <c r="T9">
-        <v>0.001251357881473413</v>
+        <v>0.01401164954090655</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>3.645556</v>
       </c>
       <c r="I10">
-        <v>0.007050994322792145</v>
+        <v>0.08327029435271388</v>
       </c>
       <c r="J10">
-        <v>0.007050994322792145</v>
+        <v>0.08327029435271389</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>14.227296</v>
+        <v>17.455606</v>
       </c>
       <c r="N10">
-        <v>42.68188799999999</v>
+        <v>52.36681799999999</v>
       </c>
       <c r="O10">
-        <v>0.0904566080439041</v>
+        <v>0.1052254665651554</v>
       </c>
       <c r="P10">
-        <v>0.09045660804390411</v>
+        <v>0.1052254665651554</v>
       </c>
       <c r="Q10">
-        <v>17.288801432192</v>
+        <v>21.21179639564533</v>
       </c>
       <c r="R10">
-        <v>155.599212889728</v>
+        <v>190.906167560808</v>
       </c>
       <c r="S10">
-        <v>0.0006378090297766021</v>
+        <v>0.008762155574282143</v>
       </c>
       <c r="T10">
-        <v>0.0006378090297766021</v>
+        <v>0.008762155574282143</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>3.645556</v>
       </c>
       <c r="I11">
-        <v>0.007050994322792145</v>
+        <v>0.08327029435271388</v>
       </c>
       <c r="J11">
-        <v>0.007050994322792145</v>
+        <v>0.08327029435271389</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>43.47278266666666</v>
+        <v>8.484003666666666</v>
       </c>
       <c r="N11">
-        <v>130.418348</v>
+        <v>25.452011</v>
       </c>
       <c r="O11">
-        <v>0.2763983024080257</v>
+        <v>0.05114306797286151</v>
       </c>
       <c r="P11">
-        <v>0.2763983024080258</v>
+        <v>0.05114306797286151</v>
       </c>
       <c r="Q11">
-        <v>52.82748789572088</v>
+        <v>10.30963682367956</v>
       </c>
       <c r="R11">
-        <v>475.4473910614879</v>
+        <v>92.786731413116</v>
       </c>
       <c r="S11">
-        <v>0.001948882861108376</v>
+        <v>0.004258698324201031</v>
       </c>
       <c r="T11">
-        <v>0.001948882861108376</v>
+        <v>0.004258698324201032</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,7 +1154,7 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1169,10 +1169,10 @@
         <v>3.645556</v>
       </c>
       <c r="I12">
-        <v>0.007050994322792145</v>
+        <v>0.08327029435271388</v>
       </c>
       <c r="J12">
-        <v>0.007050994322792145</v>
+        <v>0.08327029435271389</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>48.33663566666667</v>
+        <v>54.152232</v>
       </c>
       <c r="N12">
-        <v>145.009907</v>
+        <v>162.456696</v>
       </c>
       <c r="O12">
-        <v>0.3073224951994155</v>
+        <v>0.3264391896646005</v>
       </c>
       <c r="P12">
-        <v>0.3073224951994155</v>
+        <v>0.3264391896646005</v>
       </c>
       <c r="Q12">
-        <v>58.73797072481022</v>
+        <v>65.804998093664</v>
       </c>
       <c r="R12">
-        <v>528.641736523292</v>
+        <v>592.244982842976</v>
       </c>
       <c r="S12">
-        <v>0.002166929168917395</v>
+        <v>0.02718268741163268</v>
       </c>
       <c r="T12">
-        <v>0.002166929168917395</v>
+        <v>0.02718268741163268</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,7 +1216,7 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1231,10 +1231,10 @@
         <v>3.645556</v>
       </c>
       <c r="I13">
-        <v>0.007050994322792145</v>
+        <v>0.08327029435271388</v>
       </c>
       <c r="J13">
-        <v>0.007050994322792145</v>
+        <v>0.08327029435271389</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>6.972696</v>
+        <v>40.06783666666666</v>
       </c>
       <c r="N13">
-        <v>20.918088</v>
+        <v>120.20351</v>
       </c>
       <c r="O13">
-        <v>0.04433213655506275</v>
+        <v>0.2415359746035996</v>
       </c>
       <c r="P13">
-        <v>0.04433213655506276</v>
+        <v>0.2415359746035996</v>
       </c>
       <c r="Q13">
-        <v>8.473117912992</v>
+        <v>48.68984745572889</v>
       </c>
       <c r="R13">
-        <v>76.258061216928</v>
+        <v>438.20862710156</v>
       </c>
       <c r="S13">
-        <v>0.0003125856431669936</v>
+        <v>0.02011277170201136</v>
       </c>
       <c r="T13">
-        <v>0.0003125856431669937</v>
+        <v>0.02011277170201137</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.148871</v>
+        <v>0.005929666666666666</v>
       </c>
       <c r="H14">
-        <v>0.446613</v>
+        <v>0.017789</v>
       </c>
       <c r="I14">
-        <v>0.0008638094511468671</v>
+        <v>0.0004063290390383325</v>
       </c>
       <c r="J14">
-        <v>0.0008638094511468671</v>
+        <v>0.0004063290390383325</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>16.36026066666667</v>
+        <v>17.81454566666666</v>
       </c>
       <c r="N14">
-        <v>49.080782</v>
+        <v>53.443637</v>
       </c>
       <c r="O14">
-        <v>0.1040179164488296</v>
+        <v>0.1073892180782075</v>
       </c>
       <c r="P14">
-        <v>0.1040179164488297</v>
+        <v>0.1073892180782075</v>
       </c>
       <c r="Q14">
-        <v>2.435568365707333</v>
+        <v>0.1056343176214444</v>
       </c>
       <c r="R14">
-        <v>21.920115291366</v>
+        <v>0.9507088585929999</v>
       </c>
       <c r="S14">
-        <v>8.98516593171042E-05</v>
+        <v>4.363535778479598E-05</v>
       </c>
       <c r="T14">
-        <v>8.985165931710423E-05</v>
+        <v>4.363535778479598E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.148871</v>
+        <v>0.005929666666666666</v>
       </c>
       <c r="H15">
-        <v>0.446613</v>
+        <v>0.017789</v>
       </c>
       <c r="I15">
-        <v>0.0008638094511468671</v>
+        <v>0.0004063290390383325</v>
       </c>
       <c r="J15">
-        <v>0.0008638094511468671</v>
+        <v>0.0004063290390383325</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>83.740296</v>
       </c>
       <c r="O15">
-        <v>0.1774725413447622</v>
+        <v>0.1682670831155755</v>
       </c>
       <c r="P15">
-        <v>0.1774725413447623</v>
+        <v>0.1682670831155755</v>
       </c>
       <c r="Q15">
-        <v>4.155500535272</v>
+        <v>0.1655173472826666</v>
       </c>
       <c r="R15">
-        <v>37.399504817448</v>
+        <v>1.489656125544</v>
       </c>
       <c r="S15">
-        <v>0.0001533024585326587</v>
+        <v>6.837180218413504E-05</v>
       </c>
       <c r="T15">
-        <v>0.0001533024585326588</v>
+        <v>6.837180218413504E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.148871</v>
+        <v>0.005929666666666666</v>
       </c>
       <c r="H16">
-        <v>0.446613</v>
+        <v>0.017789</v>
       </c>
       <c r="I16">
-        <v>0.0008638094511468671</v>
+        <v>0.0004063290390383325</v>
       </c>
       <c r="J16">
-        <v>0.0008638094511468671</v>
+        <v>0.0004063290390383325</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>14.227296</v>
+        <v>17.455606</v>
       </c>
       <c r="N16">
-        <v>42.68188799999999</v>
+        <v>52.36681799999999</v>
       </c>
       <c r="O16">
-        <v>0.0904566080439041</v>
+        <v>0.1052254665651554</v>
       </c>
       <c r="P16">
-        <v>0.09045660804390411</v>
+        <v>0.1052254665651554</v>
       </c>
       <c r="Q16">
-        <v>2.118031782816</v>
+        <v>0.1035059250446667</v>
       </c>
       <c r="R16">
-        <v>19.062286045344</v>
+        <v>0.9315533254019999</v>
       </c>
       <c r="S16">
-        <v>7.813727294701208E-05</v>
+        <v>4.275616271177978E-05</v>
       </c>
       <c r="T16">
-        <v>7.813727294701209E-05</v>
+        <v>4.275616271177978E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.148871</v>
+        <v>0.005929666666666666</v>
       </c>
       <c r="H17">
-        <v>0.446613</v>
+        <v>0.017789</v>
       </c>
       <c r="I17">
-        <v>0.0008638094511468671</v>
+        <v>0.0004063290390383325</v>
       </c>
       <c r="J17">
-        <v>0.0008638094511468671</v>
+        <v>0.0004063290390383325</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>43.47278266666666</v>
+        <v>8.484003666666666</v>
       </c>
       <c r="N17">
-        <v>130.418348</v>
+        <v>25.452011</v>
       </c>
       <c r="O17">
-        <v>0.2763983024080257</v>
+        <v>0.05114306797286151</v>
       </c>
       <c r="P17">
-        <v>0.2763983024080258</v>
+        <v>0.05114306797286151</v>
       </c>
       <c r="Q17">
-        <v>6.471836628369332</v>
+        <v>0.05030731374211111</v>
       </c>
       <c r="R17">
-        <v>58.246529655324</v>
+        <v>0.452765823679</v>
       </c>
       <c r="S17">
-        <v>0.0002387554659010025</v>
+        <v>2.078091366288494E-05</v>
       </c>
       <c r="T17">
-        <v>0.0002387554659010025</v>
+        <v>2.078091366288494E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,7 +1526,7 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -1535,16 +1535,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.148871</v>
+        <v>0.005929666666666666</v>
       </c>
       <c r="H18">
-        <v>0.446613</v>
+        <v>0.017789</v>
       </c>
       <c r="I18">
-        <v>0.0008638094511468671</v>
+        <v>0.0004063290390383325</v>
       </c>
       <c r="J18">
-        <v>0.0008638094511468671</v>
+        <v>0.0004063290390383325</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>48.33663566666667</v>
+        <v>54.152232</v>
       </c>
       <c r="N18">
-        <v>145.009907</v>
+        <v>162.456696</v>
       </c>
       <c r="O18">
-        <v>0.3073224951994155</v>
+        <v>0.3264391896646005</v>
       </c>
       <c r="P18">
-        <v>0.3073224951994155</v>
+        <v>0.3264391896646005</v>
       </c>
       <c r="Q18">
-        <v>7.195923288332334</v>
+        <v>0.321104685016</v>
       </c>
       <c r="R18">
-        <v>64.763309594991</v>
+        <v>2.889942165144</v>
       </c>
       <c r="S18">
-        <v>0.0002654680759032928</v>
+        <v>0.0001326417222408691</v>
       </c>
       <c r="T18">
-        <v>0.0002654680759032928</v>
+        <v>0.0001326417222408691</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,7 +1588,7 @@
         <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -1597,16 +1597,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.148871</v>
+        <v>0.005929666666666666</v>
       </c>
       <c r="H19">
-        <v>0.446613</v>
+        <v>0.017789</v>
       </c>
       <c r="I19">
-        <v>0.0008638094511468671</v>
+        <v>0.0004063290390383325</v>
       </c>
       <c r="J19">
-        <v>0.0008638094511468671</v>
+        <v>0.0004063290390383325</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>6.972696</v>
+        <v>40.06783666666666</v>
       </c>
       <c r="N19">
-        <v>20.918088</v>
+        <v>120.20351</v>
       </c>
       <c r="O19">
-        <v>0.04433213655506275</v>
+        <v>0.2415359746035996</v>
       </c>
       <c r="P19">
-        <v>0.04433213655506276</v>
+        <v>0.2415359746035996</v>
       </c>
       <c r="Q19">
-        <v>1.038032226216</v>
+        <v>0.2375889154877777</v>
       </c>
       <c r="R19">
-        <v>9.342290035944002</v>
+        <v>2.13830023939</v>
       </c>
       <c r="S19">
-        <v>3.829451854579672E-05</v>
+        <v>9.814308045386771E-05</v>
       </c>
       <c r="T19">
-        <v>3.829451854579673E-05</v>
+        <v>9.814308045386773E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>164.091384</v>
+        <v>5.935154999999999</v>
       </c>
       <c r="H20">
-        <v>492.2741520000001</v>
+        <v>17.805465</v>
       </c>
       <c r="I20">
-        <v>0.9521242441507738</v>
+        <v>0.406705125812618</v>
       </c>
       <c r="J20">
-        <v>0.9521242441507737</v>
+        <v>0.4067051258126181</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>16.36026066666667</v>
+        <v>17.81454566666666</v>
       </c>
       <c r="N20">
-        <v>49.080782</v>
+        <v>53.443637</v>
       </c>
       <c r="O20">
-        <v>0.1040179164488296</v>
+        <v>0.1073892180782075</v>
       </c>
       <c r="P20">
-        <v>0.1040179164488297</v>
+        <v>0.1073892180782075</v>
       </c>
       <c r="Q20">
-        <v>2684.577815394096</v>
+        <v>105.732089786245</v>
       </c>
       <c r="R20">
-        <v>24161.20033854687</v>
+        <v>951.5888080762048</v>
       </c>
       <c r="S20">
-        <v>0.09903798007698025</v>
+        <v>0.04367574544941605</v>
       </c>
       <c r="T20">
-        <v>0.09903798007698027</v>
+        <v>0.04367574544941605</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>164.091384</v>
+        <v>5.935154999999999</v>
       </c>
       <c r="H21">
-        <v>492.2741520000001</v>
+        <v>17.805465</v>
       </c>
       <c r="I21">
-        <v>0.9521242441507738</v>
+        <v>0.406705125812618</v>
       </c>
       <c r="J21">
-        <v>0.9521242441507737</v>
+        <v>0.4067051258126181</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>83.740296</v>
       </c>
       <c r="O21">
-        <v>0.1774725413447622</v>
+        <v>0.1682670831155755</v>
       </c>
       <c r="P21">
-        <v>0.1774725413447623</v>
+        <v>0.1682670831155755</v>
       </c>
       <c r="Q21">
-        <v>4580.353689069889</v>
+        <v>165.67054550196</v>
       </c>
       <c r="R21">
-        <v>41223.183201629</v>
+        <v>1491.03490951764</v>
       </c>
       <c r="S21">
-        <v>0.1689759092853987</v>
+        <v>0.0684350852086424</v>
       </c>
       <c r="T21">
-        <v>0.1689759092853987</v>
+        <v>0.06843508520864242</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>164.091384</v>
+        <v>5.935154999999999</v>
       </c>
       <c r="H22">
-        <v>492.2741520000001</v>
+        <v>17.805465</v>
       </c>
       <c r="I22">
-        <v>0.9521242441507738</v>
+        <v>0.406705125812618</v>
       </c>
       <c r="J22">
-        <v>0.9521242441507737</v>
+        <v>0.4067051258126181</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>14.227296</v>
+        <v>17.455606</v>
       </c>
       <c r="N22">
-        <v>42.68188799999999</v>
+        <v>52.36681799999999</v>
       </c>
       <c r="O22">
-        <v>0.0904566080439041</v>
+        <v>0.1052254665651554</v>
       </c>
       <c r="P22">
-        <v>0.09045660804390411</v>
+        <v>0.1052254665651554</v>
       </c>
       <c r="Q22">
-        <v>2334.576691217664</v>
+        <v>103.60172722893</v>
       </c>
       <c r="R22">
-        <v>21011.19022095898</v>
+        <v>932.4155450603698</v>
       </c>
       <c r="S22">
-        <v>0.08612592956224499</v>
+        <v>0.04279573661807295</v>
       </c>
       <c r="T22">
-        <v>0.08612592956224499</v>
+        <v>0.04279573661807296</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>164.091384</v>
+        <v>5.935154999999999</v>
       </c>
       <c r="H23">
-        <v>492.2741520000001</v>
+        <v>17.805465</v>
       </c>
       <c r="I23">
-        <v>0.9521242441507738</v>
+        <v>0.406705125812618</v>
       </c>
       <c r="J23">
-        <v>0.9521242441507737</v>
+        <v>0.4067051258126181</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>43.47278266666666</v>
+        <v>8.484003666666666</v>
       </c>
       <c r="N23">
-        <v>130.418348</v>
+        <v>25.452011</v>
       </c>
       <c r="O23">
-        <v>0.2763983024080257</v>
+        <v>0.05114306797286151</v>
       </c>
       <c r="P23">
-        <v>0.2763983024080258</v>
+        <v>0.05114306797286151</v>
       </c>
       <c r="Q23">
-        <v>7133.509074104544</v>
+        <v>50.35387678223499</v>
       </c>
       <c r="R23">
-        <v>64201.5816669409</v>
+        <v>453.1848910401149</v>
       </c>
       <c r="S23">
-        <v>0.2631655247647985</v>
+        <v>0.02080014789434591</v>
       </c>
       <c r="T23">
-        <v>0.2631655247647985</v>
+        <v>0.02080014789434592</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,7 +1898,7 @@
         <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E24">
         <v>3</v>
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>164.091384</v>
+        <v>5.935154999999999</v>
       </c>
       <c r="H24">
-        <v>492.2741520000001</v>
+        <v>17.805465</v>
       </c>
       <c r="I24">
-        <v>0.9521242441507738</v>
+        <v>0.406705125812618</v>
       </c>
       <c r="J24">
-        <v>0.9521242441507737</v>
+        <v>0.4067051258126181</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>48.33663566666667</v>
+        <v>54.152232</v>
       </c>
       <c r="N24">
-        <v>145.009907</v>
+        <v>162.456696</v>
       </c>
       <c r="O24">
-        <v>0.3073224951994155</v>
+        <v>0.3264391896646005</v>
       </c>
       <c r="P24">
-        <v>0.3073224951994155</v>
+        <v>0.3264391896646005</v>
       </c>
       <c r="Q24">
-        <v>7931.625444447098</v>
+        <v>321.40189051596</v>
       </c>
       <c r="R24">
-        <v>71384.62900002388</v>
+        <v>2892.61701464364</v>
       </c>
       <c r="S24">
-        <v>0.2926091984522732</v>
+        <v>0.1327644917027104</v>
       </c>
       <c r="T24">
-        <v>0.2926091984522733</v>
+        <v>0.1327644917027105</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,7 +1960,7 @@
         <v>26</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E25">
         <v>3</v>
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>164.091384</v>
+        <v>5.935154999999999</v>
       </c>
       <c r="H25">
-        <v>492.2741520000001</v>
+        <v>17.805465</v>
       </c>
       <c r="I25">
-        <v>0.9521242441507738</v>
+        <v>0.406705125812618</v>
       </c>
       <c r="J25">
-        <v>0.9521242441507737</v>
+        <v>0.4067051258126181</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>6.972696</v>
+        <v>40.06783666666666</v>
       </c>
       <c r="N25">
-        <v>20.918088</v>
+        <v>120.20351</v>
       </c>
       <c r="O25">
-        <v>0.04433213655506275</v>
+        <v>0.2415359746035996</v>
       </c>
       <c r="P25">
-        <v>0.04433213655506276</v>
+        <v>0.2415359746035996</v>
       </c>
       <c r="Q25">
-        <v>1144.159336851264</v>
+        <v>237.80882113135</v>
       </c>
       <c r="R25">
-        <v>10297.43403166138</v>
+        <v>2140.27939018215</v>
       </c>
       <c r="S25">
-        <v>0.042209702009078</v>
+        <v>0.09823391893943029</v>
       </c>
       <c r="T25">
-        <v>0.04220970200907802</v>
+        <v>0.0982339189394303</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,22 +2025,22 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F26">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G26">
-        <v>1.227242333333334</v>
+        <v>0.122061</v>
       </c>
       <c r="H26">
-        <v>3.681727</v>
+        <v>0.366183</v>
       </c>
       <c r="I26">
-        <v>0.007120953888808884</v>
+        <v>0.00836420183833682</v>
       </c>
       <c r="J26">
-        <v>0.007120953888808883</v>
+        <v>0.008364201838336822</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>16.36026066666667</v>
+        <v>17.81454566666666</v>
       </c>
       <c r="N26">
-        <v>49.080782</v>
+        <v>53.443637</v>
       </c>
       <c r="O26">
-        <v>0.1040179164488296</v>
+        <v>0.1073892180782075</v>
       </c>
       <c r="P26">
-        <v>0.1040179164488297</v>
+        <v>0.1073892180782075</v>
       </c>
       <c r="Q26">
-        <v>20.07800447450156</v>
+        <v>2.174461258619</v>
       </c>
       <c r="R26">
-        <v>180.702040270514</v>
+        <v>19.570151327571</v>
       </c>
       <c r="S26">
-        <v>0.0007407067866420909</v>
+        <v>0.0008982250952672968</v>
       </c>
       <c r="T26">
-        <v>0.000740706786642091</v>
+        <v>0.000898225095267297</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,22 +2087,22 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F27">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G27">
-        <v>1.227242333333334</v>
+        <v>0.122061</v>
       </c>
       <c r="H27">
-        <v>3.681727</v>
+        <v>0.366183</v>
       </c>
       <c r="I27">
-        <v>0.007120953888808884</v>
+        <v>0.00836420183833682</v>
       </c>
       <c r="J27">
-        <v>0.007120953888808883</v>
+        <v>0.008364201838336822</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>83.740296</v>
       </c>
       <c r="O27">
-        <v>0.1774725413447622</v>
+        <v>0.1682670831155755</v>
       </c>
       <c r="P27">
-        <v>0.1774725413447623</v>
+        <v>0.1682670831155755</v>
       </c>
       <c r="Q27">
-        <v>34.25654541902134</v>
+        <v>3.407141423352</v>
       </c>
       <c r="R27">
-        <v>308.308908771192</v>
+        <v>30.664272810168</v>
       </c>
       <c r="S27">
-        <v>0.00126377378344578</v>
+        <v>0.001407419845926871</v>
       </c>
       <c r="T27">
-        <v>0.00126377378344578</v>
+        <v>0.001407419845926872</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,22 +2149,22 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F28">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G28">
-        <v>1.227242333333334</v>
+        <v>0.122061</v>
       </c>
       <c r="H28">
-        <v>3.681727</v>
+        <v>0.366183</v>
       </c>
       <c r="I28">
-        <v>0.007120953888808884</v>
+        <v>0.00836420183833682</v>
       </c>
       <c r="J28">
-        <v>0.007120953888808883</v>
+        <v>0.008364201838336822</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>14.227296</v>
+        <v>17.455606</v>
       </c>
       <c r="N28">
-        <v>42.68188799999999</v>
+        <v>52.36681799999999</v>
       </c>
       <c r="O28">
-        <v>0.0904566080439041</v>
+        <v>0.1052254665651554</v>
       </c>
       <c r="P28">
-        <v>0.09045660804390411</v>
+        <v>0.1052254665651554</v>
       </c>
       <c r="Q28">
-        <v>17.460339940064</v>
+        <v>2.130648723966</v>
       </c>
       <c r="R28">
-        <v>157.143059460576</v>
+        <v>19.175838515694</v>
       </c>
       <c r="S28">
-        <v>0.0006441373348186999</v>
+        <v>0.0008801270408841223</v>
       </c>
       <c r="T28">
-        <v>0.0006441373348186999</v>
+        <v>0.0008801270408841224</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,22 +2211,22 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F29">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G29">
-        <v>1.227242333333334</v>
+        <v>0.122061</v>
       </c>
       <c r="H29">
-        <v>3.681727</v>
+        <v>0.366183</v>
       </c>
       <c r="I29">
-        <v>0.007120953888808884</v>
+        <v>0.00836420183833682</v>
       </c>
       <c r="J29">
-        <v>0.007120953888808883</v>
+        <v>0.008364201838336822</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>43.47278266666666</v>
+        <v>8.484003666666666</v>
       </c>
       <c r="N29">
-        <v>130.418348</v>
+        <v>25.452011</v>
       </c>
       <c r="O29">
-        <v>0.2763983024080257</v>
+        <v>0.05114306797286151</v>
       </c>
       <c r="P29">
-        <v>0.2763983024080258</v>
+        <v>0.05114306797286151</v>
       </c>
       <c r="Q29">
-        <v>53.35163923633289</v>
+        <v>1.035565971557</v>
       </c>
       <c r="R29">
-        <v>480.164753126996</v>
+        <v>9.320093744012999</v>
       </c>
       <c r="S29">
-        <v>0.001968219566392604</v>
+        <v>0.0004277709431567932</v>
       </c>
       <c r="T29">
-        <v>0.001968219566392605</v>
+        <v>0.0004277709431567932</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2270,25 +2270,25 @@
         <v>26</v>
       </c>
       <c r="D30" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F30">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G30">
-        <v>1.227242333333334</v>
+        <v>0.122061</v>
       </c>
       <c r="H30">
-        <v>3.681727</v>
+        <v>0.366183</v>
       </c>
       <c r="I30">
-        <v>0.007120953888808884</v>
+        <v>0.00836420183833682</v>
       </c>
       <c r="J30">
-        <v>0.007120953888808883</v>
+        <v>0.008364201838336822</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>48.33663566666667</v>
+        <v>54.152232</v>
       </c>
       <c r="N30">
-        <v>145.009907</v>
+        <v>162.456696</v>
       </c>
       <c r="O30">
-        <v>0.3073224951994155</v>
+        <v>0.3264391896646005</v>
       </c>
       <c r="P30">
-        <v>0.3073224951994155</v>
+        <v>0.3264391896646005</v>
       </c>
       <c r="Q30">
-        <v>59.32076554104323</v>
+        <v>6.609875590151999</v>
       </c>
       <c r="R30">
-        <v>533.8868898693891</v>
+        <v>59.48888031136799</v>
       </c>
       <c r="S30">
-        <v>0.002188429317308727</v>
+        <v>0.002730403270297833</v>
       </c>
       <c r="T30">
-        <v>0.002188429317308727</v>
+        <v>0.002730403270297834</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2332,25 +2332,25 @@
         <v>26</v>
       </c>
       <c r="D31" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F31">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G31">
-        <v>1.227242333333334</v>
+        <v>0.122061</v>
       </c>
       <c r="H31">
-        <v>3.681727</v>
+        <v>0.366183</v>
       </c>
       <c r="I31">
-        <v>0.007120953888808884</v>
+        <v>0.00836420183833682</v>
       </c>
       <c r="J31">
-        <v>0.007120953888808883</v>
+        <v>0.008364201838336822</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>6.972696</v>
+        <v>40.06783666666666</v>
       </c>
       <c r="N31">
-        <v>20.918088</v>
+        <v>120.20351</v>
       </c>
       <c r="O31">
-        <v>0.04433213655506275</v>
+        <v>0.2415359746035996</v>
       </c>
       <c r="P31">
-        <v>0.04433213655506276</v>
+        <v>0.2415359746035996</v>
       </c>
       <c r="Q31">
-        <v>8.557187708664001</v>
+        <v>4.89072021137</v>
       </c>
       <c r="R31">
-        <v>77.01468937797601</v>
+        <v>44.01648190232999</v>
       </c>
       <c r="S31">
-        <v>0.0003156871002009806</v>
+        <v>0.002020255642803903</v>
       </c>
       <c r="T31">
-        <v>0.0003156871002009806</v>
+        <v>0.002020255642803904</v>
       </c>
     </row>
   </sheetData>
